--- a/figures/confusion matrices_updated_20221030.xlsx
+++ b/figures/confusion matrices_updated_20221030.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">SF2 BCells </t>
   </si>
@@ -84,42 +84,45 @@
     <t xml:space="preserve">CD69+        139     15</t>
   </si>
   <si>
+    <t xml:space="preserve">NK Cell RF Activation all features</t>
+  </si>
+  <si>
     <t xml:space="preserve">F4 C -- NK pie chart </t>
   </si>
   <si>
     <t xml:space="preserve">Cell_Size_Pix    18.057769</t>
   </si>
   <si>
+    <t xml:space="preserve">SF4 NKCells </t>
+  </si>
+  <si>
     <t xml:space="preserve">NADH_a1          10.774629</t>
   </si>
   <si>
     <t xml:space="preserve">NADH_t1          10.335209</t>
   </si>
   <si>
-    <t xml:space="preserve">SF4 NKCells </t>
-  </si>
-  <si>
     <t xml:space="preserve">NADH_tm          10.014249</t>
   </si>
   <si>
     <t xml:space="preserve">Norm_RR           9.860707</t>
   </si>
   <si>
+    <t xml:space="preserve">CD69+        295    189</t>
+  </si>
+  <si>
     <t xml:space="preserve">NADH_t2           9.733288</t>
   </si>
   <si>
+    <t xml:space="preserve">CD69-        129    327</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAD_a1            8.114940</t>
   </si>
   <si>
-    <t xml:space="preserve">CD69+        295    189</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAD_t2            7.816968</t>
   </si>
   <si>
-    <t xml:space="preserve">CD69-        129    327</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAD_t1            7.798680</t>
   </si>
   <si>
@@ -132,22 +135,55 @@
     <t xml:space="preserve">CD69-        120    336</t>
   </si>
   <si>
+    <t xml:space="preserve">Figure 5D piechart of importance on all features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell_Size_Pix    19.292958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH_t1          15.853480</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD69+        264    220</t>
   </si>
   <si>
+    <t xml:space="preserve">NADH_a1          13.668687</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD69-        141    315</t>
   </si>
   <si>
+    <t xml:space="preserve">Norm_RR          12.012819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH_tm           9.377323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAD_t1            6.509909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH_t2           6.264541</t>
+  </si>
+  <si>
     <t xml:space="preserve">SF5 AllCells </t>
   </si>
   <si>
+    <t xml:space="preserve">FAD_a1            6.251983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAD_t2            5.574815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAD_tm            5.193484</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD69+        846    226</t>
   </si>
   <si>
     <t xml:space="preserve">CD69-        152   1527</t>
   </si>
   <si>
-    <t>SF6_B</t>
+    <t>SF6_C</t>
   </si>
   <si>
     <t xml:space="preserve">Figure SF6_B piechart of importance on all features</t>
@@ -204,22 +240,25 @@
     <t xml:space="preserve">Actual Condition                               </t>
   </si>
   <si>
+    <t xml:space="preserve">B-Cells                  368         0        1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK-Cells                   4       921        2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-cells                    2         0     1453</t>
+  </si>
+  <si>
     <t xml:space="preserve">Figure SF7_C piechart of importance on all features</t>
   </si>
   <si>
-    <t xml:space="preserve">B-Cells                  368         0        1</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAD_t1           26.626769</t>
   </si>
   <si>
-    <t xml:space="preserve">NK-Cells                   4       921        2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAD_tm           17.763992</t>
   </si>
   <si>
-    <t xml:space="preserve">T-cells                    2         0     1453</t>
+    <t xml:space="preserve">S7 D quiescent</t>
   </si>
   <si>
     <t xml:space="preserve">NADH_tm          17.712420</t>
@@ -228,16 +267,25 @@
     <t xml:space="preserve">NADH_t1          12.788223</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">FAD_t2            6.020906</t>
   </si>
   <si>
+    <t xml:space="preserve">B-Cells                  221         1        1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NADH_t2           5.812560</t>
   </si>
   <si>
+    <t xml:space="preserve">NK-Cells                   1       488        3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cell_Size_Pix     5.356154</t>
   </si>
   <si>
-    <t xml:space="preserve">S7 D quiescent</t>
+    <t xml:space="preserve">T-cells                    0         0      974</t>
   </si>
   <si>
     <t xml:space="preserve">NADH_a1           4.016265</t>
@@ -246,22 +294,10 @@
     <t xml:space="preserve">Norm_RR           2.246445</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">FAD_a1            1.656266</t>
   </si>
   <si>
-    <t xml:space="preserve">B-Cells                  221         1        1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK-Cells                   1       488        3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-cells                    0         0      974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure SF8_C piechart of importance on all features</t>
+    <t xml:space="preserve">Figure SF8_B piechart of importance on all features</t>
   </si>
   <si>
     <t xml:space="preserve">FAD_t1           13.384101</t>
@@ -372,8 +408,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -408,9 +444,10 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,6 +1031,30 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="H3">
+        <v>0.99672846237731738</v>
+      </c>
+      <c r="I3">
+        <v>0.93893129770992367</v>
+      </c>
+      <c r="J3">
+        <v>0.97201017811704837</v>
+      </c>
+      <c r="K3">
+        <v>0.98473282442748089</v>
+      </c>
+      <c r="L3">
+        <v>0.9894583787713559</v>
+      </c>
+      <c r="M3">
+        <v>0.98400581606688475</v>
+      </c>
+      <c r="N3">
+        <v>0.83024354780079967</v>
+      </c>
+      <c r="O3">
+        <v>0.79825517993456929</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
@@ -1035,6 +1096,27 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="H8">
+        <v>0.85786986550345334</v>
+      </c>
+      <c r="I8">
+        <v>0.51581243184296621</v>
+      </c>
+      <c r="J8">
+        <v>0.72955288985823341</v>
+      </c>
+      <c r="K8">
+        <v>0.79171210468920394</v>
+      </c>
+      <c r="L8">
+        <v>0.84514721919302072</v>
+      </c>
+      <c r="M8">
+        <v>0.84369320247182844</v>
+      </c>
+      <c r="N8">
+        <v>0.62995274445656124</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
@@ -1061,6 +1143,27 @@
       <c r="D11" s="5"/>
       <c r="G11" t="s">
         <v>19</v>
+      </c>
+      <c r="H11">
+        <v>0.99644760213143868</v>
+      </c>
+      <c r="I11">
+        <v>0.93783303730017764</v>
+      </c>
+      <c r="J11">
+        <v>0.97158081705150978</v>
+      </c>
+      <c r="K11">
+        <v>0.98875074008288932</v>
+      </c>
+      <c r="L11">
+        <v>0.9934872705743043</v>
+      </c>
+      <c r="M11">
+        <v>0.98875074008288932</v>
+      </c>
+      <c r="N11">
+        <v>0.81290704558910598</v>
       </c>
     </row>
     <row r="12">
@@ -1108,10 +1211,6 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="G17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
@@ -1121,28 +1220,29 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="14.25">
       <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" ht="15">
-      <c r="A21" s="9" t="s">
+      <c r="G21" t="s">
         <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1150,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1158,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1166,39 +1266,45 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
         <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
         <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>16</v>
       </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
         <v>11</v>
       </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
@@ -1207,12 +1313,12 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="14.25"/>
@@ -1220,46 +1326,84 @@
       <c r="A34" t="s">
         <v>21</v>
       </c>
+      <c r="G34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35">
       <c r="B35" t="s">
         <v>11</v>
       </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
         <v>13</v>
       </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="G39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" ht="15">
-      <c r="A42" s="9" t="s">
-        <v>41</v>
+      <c r="A42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>2</v>
       </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
         <v>11</v>
       </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
@@ -1268,12 +1412,12 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -1285,262 +1429,263 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="G50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
     </row>
     <row r="51">
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="H51" t="s">
-        <v>45</v>
+      <c r="G51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="H54" t="s">
-        <v>50</v>
+      <c r="G54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="H55" t="s">
-        <v>51</v>
+      <c r="G55" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" t="s">
-        <v>52</v>
+      <c r="G56" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="H57" t="s">
-        <v>53</v>
+      <c r="G57" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="H60" t="s">
-        <v>58</v>
+      <c r="G60" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="H61" t="s">
-        <v>59</v>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="G61" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="14.25"/>
     <row r="63" ht="15">
-      <c r="A63" s="9" t="s">
-        <v>60</v>
+      <c r="A63" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+        <v>74</v>
+      </c>
       <c r="K65" s="7"/>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="H69" t="s">
-        <v>70</v>
-      </c>
-    </row>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25"/>
     <row r="70" ht="14.25">
-      <c r="H70" t="s">
-        <v>71</v>
-      </c>
+      <c r="G70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="H71" t="s">
-        <v>72</v>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="G71" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="H72" t="s">
-        <v>73</v>
+      <c r="G72" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" ht="15.75">
-      <c r="A73" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s">
-        <v>75</v>
+      <c r="A73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="G79" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="J80" s="7"/>
-      <c r="K80" s="7" t="s">
-        <v>82</v>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
+      <c r="J80" s="10"/>
+      <c r="K80" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
       <c r="K81" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="K82" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" ht="15.75">
-      <c r="A83" s="9" t="s">
-        <v>85</v>
+      <c r="A83" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="K83" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H84" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K84" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>118</v>
@@ -1561,12 +1706,12 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -1587,12 +1732,12 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1613,12 +1758,12 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1639,12 +1784,12 @@
         <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1665,12 +1810,12 @@
         <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1691,7 +1836,7 @@
         <v>932</v>
       </c>
       <c r="K90" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1845,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>